--- a/PR Team Daily Work Sheet 21th Mar.- 25th March 2022/Proheat Hydronic Offsite SEO 28-Feb-2022/Proheat Hydronic Offsite SEO - v2 - onsite offsite report - 14th Feb (Repaired) (Recovered).xlsx
+++ b/PR Team Daily Work Sheet 21th Mar.- 25th March 2022/Proheat Hydronic Offsite SEO 28-Feb-2022/Proheat Hydronic Offsite SEO - v2 - onsite offsite report - 14th Feb (Repaired) (Recovered).xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seo\PR Team Daily Work Sheet 28th Feb- 4th March 2022 (1)\Proheat Hydronic Offsite SEO 28-Feb-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seo\PR Team Daily Work Sheet 21th Mar.- 25th March 2022\Proheat Hydronic Offsite SEO 28-Feb-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15480" windowHeight="7755" tabRatio="866" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15480" windowHeight="7755" tabRatio="866" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2400,7 +2400,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="348">
+  <cellXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3037,41 +3037,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3088,6 +3053,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3095,8 +3064,39 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3155,6 +3155,26 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3162,7 +3182,7 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="96">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3875,46 +3895,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF9C0006"/>
@@ -4100,7 +4080,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4186,7 +4166,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4272,7 +4252,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4358,7 +4338,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4444,7 +4424,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4530,7 +4510,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4616,7 +4596,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4702,7 +4682,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4782,7 +4762,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4837,7 +4817,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4898,7 +4878,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4984,7 +4964,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5074,7 +5054,7 @@
         <xdr:cNvPr id="18635" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-0000CB480000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-0000CB480000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5126,7 +5106,7 @@
         <xdr:cNvPr id="29" name="Shape 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5211,7 +5191,7 @@
         <xdr:cNvPr id="19862" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000964D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-0000964D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5694,15 +5674,15 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="305" t="s">
+      <c r="G9" s="314" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="306"/>
-      <c r="I9" s="306"/>
-      <c r="J9" s="306"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306"/>
-      <c r="M9" s="307"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="315"/>
+      <c r="J9" s="315"/>
+      <c r="K9" s="315"/>
+      <c r="L9" s="315"/>
+      <c r="M9" s="316"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -5724,13 +5704,13 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="308"/>
-      <c r="H10" s="309"/>
-      <c r="I10" s="309"/>
-      <c r="J10" s="309"/>
-      <c r="K10" s="309"/>
-      <c r="L10" s="309"/>
-      <c r="M10" s="310"/>
+      <c r="G10" s="317"/>
+      <c r="H10" s="318"/>
+      <c r="I10" s="318"/>
+      <c r="J10" s="318"/>
+      <c r="K10" s="318"/>
+      <c r="L10" s="318"/>
+      <c r="M10" s="319"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -5808,17 +5788,17 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="311" t="s">
+      <c r="G13" s="320" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="312"/>
-      <c r="I13" s="312"/>
-      <c r="J13" s="312"/>
-      <c r="K13" s="313" t="s">
+      <c r="H13" s="304"/>
+      <c r="I13" s="304"/>
+      <c r="J13" s="304"/>
+      <c r="K13" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="314"/>
-      <c r="M13" s="315"/>
+      <c r="L13" s="313"/>
+      <c r="M13" s="322"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -5840,17 +5820,17 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="316" t="s">
+      <c r="G14" s="323" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="312"/>
-      <c r="I14" s="312"/>
-      <c r="J14" s="312"/>
-      <c r="K14" s="301" t="s">
+      <c r="H14" s="304"/>
+      <c r="I14" s="304"/>
+      <c r="J14" s="304"/>
+      <c r="K14" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="301"/>
-      <c r="M14" s="301"/>
+      <c r="L14" s="305"/>
+      <c r="M14" s="305"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -5872,17 +5852,17 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="322" t="s">
+      <c r="G15" s="303" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="312"/>
-      <c r="I15" s="312"/>
-      <c r="J15" s="312"/>
-      <c r="K15" s="301" t="s">
+      <c r="H15" s="304"/>
+      <c r="I15" s="304"/>
+      <c r="J15" s="304"/>
+      <c r="K15" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="301"/>
-      <c r="M15" s="301"/>
+      <c r="L15" s="305"/>
+      <c r="M15" s="305"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -5904,17 +5884,17 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="323" t="s">
+      <c r="G16" s="306" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="324"/>
-      <c r="I16" s="324"/>
-      <c r="J16" s="324"/>
-      <c r="K16" s="301" t="s">
+      <c r="H16" s="307"/>
+      <c r="I16" s="307"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="301"/>
-      <c r="M16" s="301"/>
+      <c r="L16" s="305"/>
+      <c r="M16" s="305"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -5936,17 +5916,17 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="325" t="s">
+      <c r="G17" s="308" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="312"/>
-      <c r="I17" s="312"/>
-      <c r="J17" s="312"/>
-      <c r="K17" s="301" t="s">
+      <c r="H17" s="304"/>
+      <c r="I17" s="304"/>
+      <c r="J17" s="304"/>
+      <c r="K17" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="301"/>
-      <c r="M17" s="301"/>
+      <c r="L17" s="305"/>
+      <c r="M17" s="305"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -5968,17 +5948,17 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="325" t="s">
+      <c r="G18" s="308" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="312"/>
-      <c r="I18" s="312"/>
-      <c r="J18" s="312"/>
-      <c r="K18" s="301" t="s">
+      <c r="H18" s="304"/>
+      <c r="I18" s="304"/>
+      <c r="J18" s="304"/>
+      <c r="K18" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="301"/>
-      <c r="M18" s="301"/>
+      <c r="L18" s="305"/>
+      <c r="M18" s="305"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -6000,17 +5980,17 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="326" t="s">
+      <c r="G19" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="314"/>
-      <c r="I19" s="314"/>
-      <c r="J19" s="314"/>
-      <c r="K19" s="301" t="s">
+      <c r="H19" s="313"/>
+      <c r="I19" s="313"/>
+      <c r="J19" s="313"/>
+      <c r="K19" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="301"/>
-      <c r="M19" s="301"/>
+      <c r="L19" s="305"/>
+      <c r="M19" s="305"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -6032,17 +6012,17 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="298" t="s">
+      <c r="G20" s="309" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="299"/>
-      <c r="I20" s="299"/>
-      <c r="J20" s="300"/>
-      <c r="K20" s="301" t="s">
+      <c r="H20" s="310"/>
+      <c r="I20" s="310"/>
+      <c r="J20" s="311"/>
+      <c r="K20" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="301"/>
-      <c r="M20" s="301"/>
+      <c r="L20" s="305"/>
+      <c r="M20" s="305"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -6064,17 +6044,17 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="298" t="s">
+      <c r="G21" s="309" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="299"/>
-      <c r="I21" s="299"/>
-      <c r="J21" s="300"/>
-      <c r="K21" s="301" t="s">
+      <c r="H21" s="310"/>
+      <c r="I21" s="310"/>
+      <c r="J21" s="311"/>
+      <c r="K21" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="301"/>
-      <c r="M21" s="301"/>
+      <c r="L21" s="305"/>
+      <c r="M21" s="305"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -6096,17 +6076,17 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="298" t="s">
+      <c r="G22" s="309" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="299"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="300"/>
-      <c r="K22" s="301" t="s">
+      <c r="H22" s="310"/>
+      <c r="I22" s="310"/>
+      <c r="J22" s="311"/>
+      <c r="K22" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="301"/>
-      <c r="M22" s="301"/>
+      <c r="L22" s="305"/>
+      <c r="M22" s="305"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -6128,17 +6108,17 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="298" t="s">
+      <c r="G23" s="309" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="299"/>
-      <c r="I23" s="299"/>
-      <c r="J23" s="300"/>
-      <c r="K23" s="304" t="s">
+      <c r="H23" s="310"/>
+      <c r="I23" s="310"/>
+      <c r="J23" s="311"/>
+      <c r="K23" s="326" t="s">
         <v>1</v>
       </c>
-      <c r="L23" s="304"/>
-      <c r="M23" s="304"/>
+      <c r="L23" s="326"/>
+      <c r="M23" s="326"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -6160,17 +6140,17 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="298" t="s">
+      <c r="G24" s="309" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="299"/>
-      <c r="I24" s="299"/>
-      <c r="J24" s="300"/>
-      <c r="K24" s="301" t="s">
+      <c r="H24" s="310"/>
+      <c r="I24" s="310"/>
+      <c r="J24" s="311"/>
+      <c r="K24" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="301"/>
-      <c r="M24" s="301"/>
+      <c r="L24" s="305"/>
+      <c r="M24" s="305"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -6192,17 +6172,17 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="298" t="s">
+      <c r="G25" s="309" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="299"/>
-      <c r="I25" s="299"/>
-      <c r="J25" s="300"/>
-      <c r="K25" s="304" t="s">
+      <c r="H25" s="310"/>
+      <c r="I25" s="310"/>
+      <c r="J25" s="311"/>
+      <c r="K25" s="326" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="304"/>
-      <c r="M25" s="304"/>
+      <c r="L25" s="326"/>
+      <c r="M25" s="326"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -6224,17 +6204,17 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="298" t="s">
+      <c r="G26" s="309" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="299"/>
-      <c r="I26" s="299"/>
-      <c r="J26" s="300"/>
-      <c r="K26" s="304" t="s">
+      <c r="H26" s="310"/>
+      <c r="I26" s="310"/>
+      <c r="J26" s="311"/>
+      <c r="K26" s="326" t="s">
         <v>1</v>
       </c>
-      <c r="L26" s="304"/>
-      <c r="M26" s="304"/>
+      <c r="L26" s="326"/>
+      <c r="M26" s="326"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -6259,14 +6239,14 @@
       <c r="G27" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="317"/>
-      <c r="I27" s="318"/>
-      <c r="J27" s="318"/>
-      <c r="K27" s="319" t="s">
+      <c r="H27" s="298"/>
+      <c r="I27" s="299"/>
+      <c r="J27" s="299"/>
+      <c r="K27" s="300" t="s">
         <v>73</v>
       </c>
-      <c r="L27" s="320"/>
-      <c r="M27" s="321"/>
+      <c r="L27" s="301"/>
+      <c r="M27" s="302"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
@@ -6288,17 +6268,17 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="298" t="s">
+      <c r="G28" s="309" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="299"/>
-      <c r="I28" s="299"/>
-      <c r="J28" s="300"/>
-      <c r="K28" s="301" t="s">
+      <c r="H28" s="310"/>
+      <c r="I28" s="310"/>
+      <c r="J28" s="311"/>
+      <c r="K28" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="L28" s="301"/>
-      <c r="M28" s="301"/>
+      <c r="L28" s="305"/>
+      <c r="M28" s="305"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -6320,17 +6300,17 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="298" t="s">
+      <c r="G29" s="309" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="299"/>
-      <c r="I29" s="299"/>
-      <c r="J29" s="299"/>
-      <c r="K29" s="302" t="s">
+      <c r="H29" s="310"/>
+      <c r="I29" s="310"/>
+      <c r="J29" s="310"/>
+      <c r="K29" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="303"/>
-      <c r="M29" s="303"/>
+      <c r="L29" s="325"/>
+      <c r="M29" s="325"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -6352,17 +6332,17 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="298" t="s">
+      <c r="G30" s="309" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="299"/>
-      <c r="I30" s="299"/>
-      <c r="J30" s="299"/>
-      <c r="K30" s="302" t="s">
+      <c r="H30" s="310"/>
+      <c r="I30" s="310"/>
+      <c r="J30" s="310"/>
+      <c r="K30" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="L30" s="303"/>
-      <c r="M30" s="303"/>
+      <c r="L30" s="325"/>
+      <c r="M30" s="325"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -12443,6 +12423,27 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="G9:M10"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:M14"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="G15:J15"/>
@@ -12459,27 +12460,6 @@
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="K19:M19"/>
-    <mergeCell ref="G9:M10"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:M24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K23:M23" location="PDF!A1" display="Click HERE"/>
@@ -12698,8 +12678,8 @@
       <c r="C7" s="342" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="315"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="322"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -12726,7 +12706,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="343"/>
-      <c r="D8" s="324"/>
+      <c r="D8" s="307"/>
       <c r="E8" s="344"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -12812,8 +12792,8 @@
       <c r="C11" s="341">
         <v>43580</v>
       </c>
-      <c r="D11" s="312"/>
-      <c r="E11" s="312"/>
+      <c r="D11" s="304"/>
+      <c r="E11" s="304"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -29733,8 +29713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29785,15 +29765,15 @@
       <c r="B8" s="328" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
+      <c r="C8" s="310"/>
+      <c r="D8" s="310"/>
+      <c r="E8" s="310"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="299"/>
-      <c r="C9" s="299"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
+      <c r="B9" s="310"/>
+      <c r="C9" s="310"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="327" t="s">
@@ -30107,11 +30087,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:Z987"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32563,80 +32543,74 @@
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="49"/>
       <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
+      <c r="C70" s="213"/>
+      <c r="D70" s="282"/>
+      <c r="E70" s="264"/>
+      <c r="F70" s="214"/>
+      <c r="G70" s="206"/>
+      <c r="H70" s="212"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="212"/>
+      <c r="K70" s="281"/>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="49"/>
       <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
+      <c r="C71" s="213"/>
+      <c r="D71" s="282"/>
+      <c r="E71" s="264"/>
+      <c r="F71" s="214"/>
+      <c r="G71" s="206"/>
+      <c r="H71" s="212"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="212"/>
+      <c r="K71" s="281"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49"/>
       <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
+      <c r="C72" s="213"/>
+      <c r="D72" s="282"/>
+      <c r="E72" s="264"/>
+      <c r="F72" s="214"/>
+      <c r="G72" s="206"/>
+      <c r="H72" s="212"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="212"/>
+      <c r="K72" s="281"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="49"/>
       <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
+      <c r="C73" s="213"/>
+      <c r="D73" s="282"/>
+      <c r="E73" s="264"/>
+      <c r="F73" s="214"/>
+      <c r="G73" s="206"/>
+      <c r="H73" s="212"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="212"/>
+      <c r="K73" s="281"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49"/>
       <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="G74" s="355"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49"/>
       <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
+      <c r="C75" s="348"/>
+      <c r="D75" s="349"/>
+      <c r="E75" s="350"/>
+      <c r="F75" s="351"/>
+      <c r="G75" s="352"/>
+      <c r="H75" s="353"/>
+      <c r="I75" s="80"/>
+      <c r="J75" s="353"/>
+      <c r="K75" s="354"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49"/>
@@ -32769,81 +32743,93 @@
       <c r="K85" s="49"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="103"/>
-      <c r="D86" s="107"/>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72"/>
-      <c r="G86" s="72"/>
-      <c r="H86" s="109"/>
-      <c r="I86" s="72"/>
-      <c r="J86" s="72"/>
-      <c r="K86" s="72"/>
+      <c r="A86" s="49"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="103"/>
-      <c r="D87" s="107"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="109"/>
-      <c r="I87" s="72"/>
-      <c r="J87" s="72"/>
-      <c r="K87" s="72"/>
+      <c r="A87" s="49"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="103"/>
-      <c r="D88" s="107"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="72"/>
-      <c r="G88" s="72"/>
-      <c r="H88" s="109"/>
-      <c r="I88" s="72"/>
-      <c r="J88" s="72"/>
-      <c r="K88" s="72"/>
+      <c r="A88" s="49"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="103"/>
-      <c r="D89" s="110"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="104"/>
-      <c r="H89" s="105"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="72"/>
+      <c r="A89" s="49"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="103"/>
-      <c r="D90" s="110"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="72"/>
-      <c r="G90" s="104"/>
-      <c r="H90" s="105"/>
-      <c r="I90" s="72"/>
-      <c r="J90" s="71"/>
-      <c r="K90" s="71"/>
+      <c r="A90" s="49"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="103"/>
-      <c r="D91" s="110"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="78"/>
-      <c r="G91" s="104"/>
-      <c r="H91" s="105"/>
-      <c r="I91" s="78"/>
-      <c r="J91" s="75"/>
-      <c r="K91" s="75"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="103"/>
-      <c r="D92" s="110"/>
-      <c r="E92" s="78"/>
-      <c r="F92" s="78"/>
-      <c r="G92" s="78"/>
-      <c r="H92" s="111"/>
-      <c r="I92" s="78"/>
-      <c r="J92" s="78"/>
-      <c r="K92" s="75"/>
+      <c r="D92" s="107"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="109"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="72"/>
+      <c r="K92" s="72"/>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="103"/>
@@ -32869,79 +32855,79 @@
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="103"/>
-      <c r="D95" s="108"/>
-      <c r="E95" s="75"/>
+      <c r="D95" s="110"/>
+      <c r="E95" s="72"/>
       <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
-      <c r="H95" s="111"/>
-      <c r="I95" s="78"/>
+      <c r="G95" s="104"/>
+      <c r="H95" s="105"/>
+      <c r="I95" s="72"/>
       <c r="J95" s="71"/>
       <c r="K95" s="72"/>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="103"/>
-      <c r="D96" s="108"/>
+      <c r="D96" s="110"/>
       <c r="E96" s="71"/>
-      <c r="F96" s="78"/>
+      <c r="F96" s="72"/>
       <c r="G96" s="104"/>
-      <c r="H96" s="111"/>
-      <c r="I96" s="78"/>
-      <c r="J96" s="72"/>
-      <c r="K96" s="72"/>
+      <c r="H96" s="105"/>
+      <c r="I96" s="72"/>
+      <c r="J96" s="71"/>
+      <c r="K96" s="71"/>
     </row>
     <row r="97" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="103"/>
-      <c r="D97" s="108"/>
+      <c r="D97" s="110"/>
       <c r="E97" s="75"/>
       <c r="F97" s="78"/>
       <c r="G97" s="104"/>
-      <c r="H97" s="111"/>
+      <c r="H97" s="105"/>
       <c r="I97" s="78"/>
-      <c r="J97" s="71"/>
-      <c r="K97" s="72"/>
+      <c r="J97" s="75"/>
+      <c r="K97" s="75"/>
     </row>
     <row r="98" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="103"/>
-      <c r="D98" s="108"/>
-      <c r="E98" s="72"/>
+      <c r="D98" s="110"/>
+      <c r="E98" s="78"/>
       <c r="F98" s="78"/>
-      <c r="G98" s="104"/>
+      <c r="G98" s="78"/>
       <c r="H98" s="111"/>
       <c r="I98" s="78"/>
-      <c r="J98" s="112"/>
-      <c r="K98" s="72"/>
+      <c r="J98" s="78"/>
+      <c r="K98" s="75"/>
     </row>
     <row r="99" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" s="103"/>
-      <c r="D99" s="108"/>
+      <c r="D99" s="107"/>
       <c r="E99" s="72"/>
       <c r="F99" s="72"/>
-      <c r="G99" s="74"/>
-      <c r="H99" s="111"/>
-      <c r="I99" s="78"/>
-      <c r="J99" s="71"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="109"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
       <c r="K99" s="72"/>
     </row>
     <row r="100" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C100" s="103"/>
-      <c r="D100" s="108"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="104"/>
-      <c r="H100" s="111"/>
-      <c r="I100" s="78"/>
-      <c r="J100" s="71"/>
+      <c r="D100" s="107"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="72"/>
+      <c r="H100" s="109"/>
+      <c r="I100" s="72"/>
+      <c r="J100" s="72"/>
       <c r="K100" s="72"/>
     </row>
     <row r="101" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C101" s="103"/>
       <c r="D101" s="108"/>
-      <c r="E101" s="71"/>
-      <c r="F101" s="78"/>
-      <c r="G101" s="104"/>
+      <c r="E101" s="75"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="72"/>
       <c r="H101" s="111"/>
       <c r="I101" s="78"/>
-      <c r="J101" s="72"/>
+      <c r="J101" s="71"/>
       <c r="K101" s="72"/>
     </row>
     <row r="102" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32958,179 +32944,178 @@
     <row r="103" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C103" s="103"/>
       <c r="D103" s="108"/>
-      <c r="E103" s="71"/>
+      <c r="E103" s="75"/>
       <c r="F103" s="78"/>
       <c r="G103" s="104"/>
-      <c r="H103" s="74"/>
+      <c r="H103" s="111"/>
       <c r="I103" s="78"/>
-      <c r="J103" s="72"/>
+      <c r="J103" s="71"/>
       <c r="K103" s="72"/>
     </row>
     <row r="104" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" s="103"/>
       <c r="D104" s="108"/>
-      <c r="E104" s="71"/>
+      <c r="E104" s="72"/>
       <c r="F104" s="78"/>
       <c r="G104" s="104"/>
-      <c r="H104" s="74"/>
+      <c r="H104" s="111"/>
       <c r="I104" s="78"/>
-      <c r="J104" s="72"/>
+      <c r="J104" s="112"/>
       <c r="K104" s="72"/>
     </row>
     <row r="105" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C105" s="103"/>
       <c r="D105" s="108"/>
-      <c r="E105" s="113"/>
-      <c r="F105" s="78"/>
-      <c r="G105" s="104"/>
-      <c r="H105" s="74"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="111"/>
       <c r="I105" s="78"/>
-      <c r="J105" s="75"/>
-      <c r="K105" s="71"/>
+      <c r="J105" s="71"/>
+      <c r="K105" s="72"/>
     </row>
     <row r="106" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C106" s="103"/>
       <c r="D106" s="108"/>
-      <c r="E106" s="106"/>
+      <c r="E106" s="74"/>
       <c r="F106" s="78"/>
       <c r="G106" s="104"/>
       <c r="H106" s="111"/>
       <c r="I106" s="78"/>
-      <c r="J106" s="75"/>
-      <c r="K106" s="114"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="72"/>
     </row>
     <row r="107" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C107" s="103"/>
       <c r="D107" s="108"/>
-      <c r="E107" s="106"/>
+      <c r="E107" s="71"/>
       <c r="F107" s="78"/>
       <c r="G107" s="104"/>
-      <c r="H107" s="74"/>
+      <c r="H107" s="111"/>
       <c r="I107" s="78"/>
-      <c r="J107" s="75"/>
-      <c r="K107" s="114"/>
+      <c r="J107" s="72"/>
+      <c r="K107" s="72"/>
     </row>
     <row r="108" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="103"/>
       <c r="D108" s="108"/>
-      <c r="E108" s="106"/>
+      <c r="E108" s="71"/>
       <c r="F108" s="78"/>
       <c r="G108" s="104"/>
       <c r="H108" s="111"/>
-      <c r="I108" s="75"/>
-      <c r="J108" s="75"/>
-      <c r="K108" s="114"/>
+      <c r="I108" s="78"/>
+      <c r="J108" s="72"/>
+      <c r="K108" s="72"/>
     </row>
     <row r="109" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="103"/>
       <c r="D109" s="108"/>
-      <c r="E109" s="106"/>
+      <c r="E109" s="71"/>
       <c r="F109" s="78"/>
       <c r="G109" s="104"/>
       <c r="H109" s="74"/>
-      <c r="I109" s="75"/>
-      <c r="J109" s="75"/>
-      <c r="K109" s="114"/>
+      <c r="I109" s="78"/>
+      <c r="J109" s="72"/>
+      <c r="K109" s="72"/>
     </row>
     <row r="110" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="103"/>
       <c r="D110" s="108"/>
-      <c r="E110" s="106"/>
+      <c r="E110" s="71"/>
       <c r="F110" s="78"/>
       <c r="G110" s="104"/>
-      <c r="H110" s="111"/>
-      <c r="I110" s="93"/>
-      <c r="J110" s="93"/>
-      <c r="K110" s="106"/>
+      <c r="H110" s="74"/>
+      <c r="I110" s="78"/>
+      <c r="J110" s="72"/>
+      <c r="K110" s="72"/>
     </row>
     <row r="111" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C111" s="103"/>
       <c r="D111" s="108"/>
-      <c r="E111" s="106"/>
-      <c r="F111" s="106"/>
+      <c r="E111" s="113"/>
+      <c r="F111" s="78"/>
       <c r="G111" s="104"/>
-      <c r="H111" s="111"/>
-      <c r="I111" s="93"/>
-      <c r="J111" s="93"/>
-      <c r="K111" s="114"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="78"/>
+      <c r="J111" s="75"/>
+      <c r="K111" s="71"/>
     </row>
     <row r="112" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C112" s="103"/>
       <c r="D112" s="108"/>
       <c r="E112" s="106"/>
-      <c r="F112" s="106"/>
+      <c r="F112" s="78"/>
       <c r="G112" s="104"/>
       <c r="H112" s="111"/>
-      <c r="I112" s="93"/>
-      <c r="J112" s="93"/>
+      <c r="I112" s="78"/>
+      <c r="J112" s="75"/>
       <c r="K112" s="114"/>
     </row>
     <row r="113" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C113" s="103"/>
       <c r="D113" s="108"/>
-      <c r="E113" s="115"/>
-      <c r="F113" s="106"/>
+      <c r="E113" s="106"/>
+      <c r="F113" s="78"/>
       <c r="G113" s="104"/>
-      <c r="H113" s="111"/>
-      <c r="I113" s="93"/>
-      <c r="J113" s="93"/>
-      <c r="K113" s="79"/>
-      <c r="L113" s="97"/>
+      <c r="H113" s="74"/>
+      <c r="I113" s="78"/>
+      <c r="J113" s="75"/>
+      <c r="K113" s="114"/>
     </row>
     <row r="114" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C114" s="103"/>
       <c r="D114" s="108"/>
-      <c r="E114" s="115"/>
-      <c r="F114" s="106"/>
+      <c r="E114" s="106"/>
+      <c r="F114" s="78"/>
       <c r="G114" s="104"/>
       <c r="H114" s="111"/>
-      <c r="I114" s="93"/>
-      <c r="J114" s="93"/>
-      <c r="K114" s="79"/>
+      <c r="I114" s="75"/>
+      <c r="J114" s="75"/>
+      <c r="K114" s="114"/>
     </row>
     <row r="115" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" s="103"/>
       <c r="D115" s="108"/>
-      <c r="E115" s="115"/>
-      <c r="F115" s="106"/>
+      <c r="E115" s="106"/>
+      <c r="F115" s="78"/>
       <c r="G115" s="104"/>
-      <c r="H115" s="111"/>
-      <c r="I115" s="93"/>
-      <c r="J115" s="93"/>
-      <c r="K115" s="116"/>
+      <c r="H115" s="74"/>
+      <c r="I115" s="75"/>
+      <c r="J115" s="75"/>
+      <c r="K115" s="114"/>
     </row>
     <row r="116" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C116" s="103"/>
       <c r="D116" s="108"/>
-      <c r="E116" s="115"/>
-      <c r="F116" s="106"/>
+      <c r="E116" s="106"/>
+      <c r="F116" s="78"/>
       <c r="G116" s="104"/>
       <c r="H116" s="111"/>
       <c r="I116" s="93"/>
       <c r="J116" s="93"/>
-      <c r="K116" s="79"/>
+      <c r="K116" s="106"/>
     </row>
     <row r="117" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" s="103"/>
       <c r="D117" s="108"/>
-      <c r="E117" s="115"/>
+      <c r="E117" s="106"/>
       <c r="F117" s="106"/>
       <c r="G117" s="104"/>
       <c r="H117" s="111"/>
       <c r="I117" s="93"/>
       <c r="J117" s="93"/>
-      <c r="K117" s="79"/>
+      <c r="K117" s="114"/>
     </row>
     <row r="118" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="103"/>
       <c r="D118" s="108"/>
-      <c r="E118" s="115"/>
+      <c r="E118" s="106"/>
       <c r="F118" s="106"/>
       <c r="G118" s="104"/>
       <c r="H118" s="111"/>
       <c r="I118" s="93"/>
       <c r="J118" s="93"/>
-      <c r="K118" s="79"/>
+      <c r="K118" s="114"/>
     </row>
     <row r="119" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="103"/>
@@ -33138,10 +33123,11 @@
       <c r="E119" s="115"/>
       <c r="F119" s="106"/>
       <c r="G119" s="104"/>
-      <c r="H119" s="74"/>
+      <c r="H119" s="111"/>
       <c r="I119" s="93"/>
-      <c r="J119" s="75"/>
+      <c r="J119" s="93"/>
       <c r="K119" s="79"/>
+      <c r="L119" s="97"/>
     </row>
     <row r="120" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="103"/>
@@ -33151,7 +33137,7 @@
       <c r="G120" s="104"/>
       <c r="H120" s="111"/>
       <c r="I120" s="93"/>
-      <c r="J120" s="75"/>
+      <c r="J120" s="93"/>
       <c r="K120" s="79"/>
     </row>
     <row r="121" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33162,8 +33148,8 @@
       <c r="G121" s="104"/>
       <c r="H121" s="111"/>
       <c r="I121" s="93"/>
-      <c r="J121" s="75"/>
-      <c r="K121" s="79"/>
+      <c r="J121" s="93"/>
+      <c r="K121" s="116"/>
     </row>
     <row r="122" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C122" s="103"/>
@@ -33182,7 +33168,7 @@
       <c r="E123" s="115"/>
       <c r="F123" s="106"/>
       <c r="G123" s="104"/>
-      <c r="H123" s="105"/>
+      <c r="H123" s="111"/>
       <c r="I123" s="93"/>
       <c r="J123" s="93"/>
       <c r="K123" s="79"/>
@@ -33193,7 +33179,7 @@
       <c r="E124" s="115"/>
       <c r="F124" s="106"/>
       <c r="G124" s="104"/>
-      <c r="H124" s="105"/>
+      <c r="H124" s="111"/>
       <c r="I124" s="93"/>
       <c r="J124" s="93"/>
       <c r="K124" s="79"/>
@@ -33204,9 +33190,9 @@
       <c r="E125" s="115"/>
       <c r="F125" s="106"/>
       <c r="G125" s="104"/>
-      <c r="H125" s="105"/>
+      <c r="H125" s="74"/>
       <c r="I125" s="93"/>
-      <c r="J125" s="93"/>
+      <c r="J125" s="75"/>
       <c r="K125" s="79"/>
     </row>
     <row r="126" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33215,9 +33201,9 @@
       <c r="E126" s="115"/>
       <c r="F126" s="106"/>
       <c r="G126" s="104"/>
-      <c r="H126" s="105"/>
+      <c r="H126" s="111"/>
       <c r="I126" s="93"/>
-      <c r="J126" s="93"/>
+      <c r="J126" s="75"/>
       <c r="K126" s="79"/>
     </row>
     <row r="127" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33226,9 +33212,9 @@
       <c r="E127" s="115"/>
       <c r="F127" s="106"/>
       <c r="G127" s="104"/>
-      <c r="H127" s="105"/>
+      <c r="H127" s="111"/>
       <c r="I127" s="93"/>
-      <c r="J127" s="93"/>
+      <c r="J127" s="75"/>
       <c r="K127" s="79"/>
     </row>
     <row r="128" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33237,7 +33223,7 @@
       <c r="E128" s="115"/>
       <c r="F128" s="106"/>
       <c r="G128" s="104"/>
-      <c r="H128" s="74"/>
+      <c r="H128" s="111"/>
       <c r="I128" s="93"/>
       <c r="J128" s="93"/>
       <c r="K128" s="79"/>
@@ -33270,7 +33256,7 @@
       <c r="E131" s="115"/>
       <c r="F131" s="106"/>
       <c r="G131" s="104"/>
-      <c r="H131" s="74"/>
+      <c r="H131" s="105"/>
       <c r="I131" s="93"/>
       <c r="J131" s="93"/>
       <c r="K131" s="79"/>
@@ -33281,7 +33267,7 @@
       <c r="E132" s="115"/>
       <c r="F132" s="106"/>
       <c r="G132" s="104"/>
-      <c r="H132" s="74"/>
+      <c r="H132" s="105"/>
       <c r="I132" s="93"/>
       <c r="J132" s="93"/>
       <c r="K132" s="79"/>
@@ -33292,78 +33278,75 @@
       <c r="E133" s="115"/>
       <c r="F133" s="106"/>
       <c r="G133" s="104"/>
-      <c r="H133" s="74"/>
+      <c r="H133" s="105"/>
       <c r="I133" s="93"/>
       <c r="J133" s="93"/>
       <c r="K133" s="79"/>
     </row>
     <row r="134" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="117"/>
-      <c r="D134" s="117"/>
-      <c r="E134" s="79"/>
-      <c r="F134" s="79"/>
-      <c r="G134" s="79"/>
-      <c r="H134" s="79"/>
-      <c r="I134" s="79"/>
-      <c r="J134" s="79"/>
+      <c r="C134" s="103"/>
+      <c r="D134" s="108"/>
+      <c r="E134" s="115"/>
+      <c r="F134" s="106"/>
+      <c r="G134" s="104"/>
+      <c r="H134" s="74"/>
+      <c r="I134" s="93"/>
+      <c r="J134" s="93"/>
       <c r="K134" s="79"/>
-      <c r="M134" s="24" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="135" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="117"/>
-      <c r="D135" s="117"/>
-      <c r="E135" s="79"/>
-      <c r="F135" s="79"/>
-      <c r="G135" s="79"/>
-      <c r="H135" s="79"/>
-      <c r="I135" s="79"/>
-      <c r="J135" s="79"/>
+      <c r="C135" s="103"/>
+      <c r="D135" s="108"/>
+      <c r="E135" s="115"/>
+      <c r="F135" s="106"/>
+      <c r="G135" s="104"/>
+      <c r="H135" s="105"/>
+      <c r="I135" s="93"/>
+      <c r="J135" s="93"/>
       <c r="K135" s="79"/>
     </row>
     <row r="136" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="117"/>
-      <c r="D136" s="117"/>
-      <c r="E136" s="79"/>
-      <c r="F136" s="79"/>
-      <c r="G136" s="79"/>
-      <c r="H136" s="79"/>
-      <c r="I136" s="79"/>
-      <c r="J136" s="79"/>
+      <c r="C136" s="103"/>
+      <c r="D136" s="108"/>
+      <c r="E136" s="115"/>
+      <c r="F136" s="106"/>
+      <c r="G136" s="104"/>
+      <c r="H136" s="105"/>
+      <c r="I136" s="93"/>
+      <c r="J136" s="93"/>
       <c r="K136" s="79"/>
     </row>
     <row r="137" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="117"/>
-      <c r="D137" s="117"/>
-      <c r="E137" s="79"/>
-      <c r="F137" s="79"/>
-      <c r="G137" s="79"/>
-      <c r="H137" s="79"/>
-      <c r="I137" s="79"/>
-      <c r="J137" s="79"/>
+      <c r="C137" s="103"/>
+      <c r="D137" s="108"/>
+      <c r="E137" s="115"/>
+      <c r="F137" s="106"/>
+      <c r="G137" s="104"/>
+      <c r="H137" s="74"/>
+      <c r="I137" s="93"/>
+      <c r="J137" s="93"/>
       <c r="K137" s="79"/>
     </row>
     <row r="138" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="117"/>
-      <c r="D138" s="117"/>
-      <c r="E138" s="79"/>
-      <c r="F138" s="79"/>
-      <c r="G138" s="79"/>
-      <c r="H138" s="79"/>
-      <c r="I138" s="79"/>
-      <c r="J138" s="79"/>
+      <c r="C138" s="103"/>
+      <c r="D138" s="108"/>
+      <c r="E138" s="115"/>
+      <c r="F138" s="106"/>
+      <c r="G138" s="104"/>
+      <c r="H138" s="74"/>
+      <c r="I138" s="93"/>
+      <c r="J138" s="93"/>
       <c r="K138" s="79"/>
     </row>
     <row r="139" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="117"/>
-      <c r="D139" s="117"/>
-      <c r="E139" s="79"/>
-      <c r="F139" s="79"/>
-      <c r="G139" s="79"/>
-      <c r="H139" s="79"/>
-      <c r="I139" s="79"/>
-      <c r="J139" s="79"/>
+      <c r="C139" s="103"/>
+      <c r="D139" s="108"/>
+      <c r="E139" s="115"/>
+      <c r="F139" s="106"/>
+      <c r="G139" s="104"/>
+      <c r="H139" s="74"/>
+      <c r="I139" s="93"/>
+      <c r="J139" s="93"/>
       <c r="K139" s="79"/>
     </row>
     <row r="140" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33376,6 +33359,9 @@
       <c r="I140" s="79"/>
       <c r="J140" s="79"/>
       <c r="K140" s="79"/>
+      <c r="M140" s="24" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="141" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C141" s="117"/>
@@ -33466,22 +33452,82 @@
       <c r="K148" s="79"/>
     </row>
     <row r="149" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="103"/>
-      <c r="D149" s="108"/>
-      <c r="E149" s="115"/>
-      <c r="F149" s="106"/>
-      <c r="G149" s="104"/>
-      <c r="H149" s="74"/>
-      <c r="I149" s="93"/>
-      <c r="J149" s="93"/>
+      <c r="C149" s="117"/>
+      <c r="D149" s="117"/>
+      <c r="E149" s="79"/>
+      <c r="F149" s="79"/>
+      <c r="G149" s="79"/>
+      <c r="H149" s="79"/>
+      <c r="I149" s="79"/>
+      <c r="J149" s="79"/>
       <c r="K149" s="79"/>
     </row>
-    <row r="150" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="117"/>
+      <c r="D150" s="117"/>
+      <c r="E150" s="79"/>
+      <c r="F150" s="79"/>
+      <c r="G150" s="79"/>
+      <c r="H150" s="79"/>
+      <c r="I150" s="79"/>
+      <c r="J150" s="79"/>
+      <c r="K150" s="79"/>
+    </row>
+    <row r="151" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="117"/>
+      <c r="D151" s="117"/>
+      <c r="E151" s="79"/>
+      <c r="F151" s="79"/>
+      <c r="G151" s="79"/>
+      <c r="H151" s="79"/>
+      <c r="I151" s="79"/>
+      <c r="J151" s="79"/>
+      <c r="K151" s="79"/>
+    </row>
+    <row r="152" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="117"/>
+      <c r="D152" s="117"/>
+      <c r="E152" s="79"/>
+      <c r="F152" s="79"/>
+      <c r="G152" s="79"/>
+      <c r="H152" s="79"/>
+      <c r="I152" s="79"/>
+      <c r="J152" s="79"/>
+      <c r="K152" s="79"/>
+    </row>
+    <row r="153" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="117"/>
+      <c r="D153" s="117"/>
+      <c r="E153" s="79"/>
+      <c r="F153" s="79"/>
+      <c r="G153" s="79"/>
+      <c r="H153" s="79"/>
+      <c r="I153" s="79"/>
+      <c r="J153" s="79"/>
+      <c r="K153" s="79"/>
+    </row>
+    <row r="154" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C154" s="117"/>
+      <c r="D154" s="117"/>
+      <c r="E154" s="79"/>
+      <c r="F154" s="79"/>
+      <c r="G154" s="79"/>
+      <c r="H154" s="79"/>
+      <c r="I154" s="79"/>
+      <c r="J154" s="79"/>
+      <c r="K154" s="79"/>
+    </row>
+    <row r="155" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="103"/>
+      <c r="D155" s="108"/>
+      <c r="E155" s="115"/>
+      <c r="F155" s="106"/>
+      <c r="G155" s="104"/>
+      <c r="H155" s="74"/>
+      <c r="I155" s="93"/>
+      <c r="J155" s="93"/>
+      <c r="K155" s="79"/>
+    </row>
     <row r="156" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="157" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="158" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34314,6 +34360,12 @@
     <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C7:K8"/>
@@ -34321,54 +34373,44 @@
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="E67">
-    <cfRule type="duplicateValues" dxfId="99" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="duplicateValues" dxfId="97" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="96" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="94" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="duplicateValues" dxfId="93" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="duplicateValues" dxfId="91" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="duplicateValues" dxfId="89" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="duplicateValues" dxfId="87" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="duplicateValues" dxfId="85" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="84" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="4"/>
+  <conditionalFormatting sqref="E68 E73">
+    <cfRule type="duplicateValues" dxfId="80" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="82" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="80" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="79" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="78" priority="1"/>
+  <conditionalFormatting sqref="E68 E73">
+    <cfRule type="duplicateValues" dxfId="78" priority="7"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E68" r:id="rId1"/>
@@ -53882,17 +53924,17 @@
     <row r="5" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G6" s="1"/>
-      <c r="H6" s="305" t="s">
+      <c r="H6" s="314" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="306"/>
-      <c r="J6" s="306"/>
+      <c r="I6" s="315"/>
+      <c r="J6" s="315"/>
     </row>
     <row r="7" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
-      <c r="H7" s="308"/>
-      <c r="I7" s="309"/>
-      <c r="J7" s="309"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="318"/>
+      <c r="J7" s="318"/>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G8" s="1"/>
@@ -53911,8 +53953,8 @@
       <c r="H10" s="341">
         <v>43580</v>
       </c>
-      <c r="I10" s="312"/>
-      <c r="J10" s="312"/>
+      <c r="I10" s="304"/>
+      <c r="J10" s="304"/>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
